--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value571.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value571.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7192521250244855</v>
+        <v>1.153101325035095</v>
       </c>
       <c r="B1">
-        <v>1.999626359515326</v>
+        <v>2.258035659790039</v>
       </c>
       <c r="C1">
-        <v>2.68391781124376</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.537685248983998</v>
+        <v>2.140463352203369</v>
       </c>
       <c r="E1">
-        <v>1.09069408120191</v>
+        <v>1.060437679290771</v>
       </c>
     </row>
   </sheetData>
